--- a/aichan/560216773674672020_2021-08-18_16-07-12.xlsx
+++ b/aichan/560216773674672020_2021-08-18_16-07-12.xlsx
@@ -821,7 +821,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -6174,7 +6174,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -7431,7 +7431,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7790,7 +7790,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -10175,7 +10175,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -11295,7 +11295,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
@@ -12445,7 +12445,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -13200,7 +13200,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13411,7 +13411,7 @@
         </is>
       </c>
       <c r="I181" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J181" t="inlineStr">
         <is>
@@ -13556,7 +13556,7 @@
         </is>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -18824,7 +18824,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -25061,7 +25061,7 @@
         </is>
       </c>
       <c r="I341" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
@@ -26934,7 +26934,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -27234,7 +27234,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27315,7 +27315,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -30242,7 +30242,7 @@
         </is>
       </c>
       <c r="I412" t="n">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="J412" t="inlineStr">
         <is>
@@ -31146,7 +31146,7 @@
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K424" t="inlineStr">
@@ -31220,7 +31220,7 @@
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
@@ -31287,7 +31287,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31658,7 +31658,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -32319,7 +32319,7 @@
         </is>
       </c>
       <c r="I440" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="J440" t="inlineStr">
         <is>
@@ -32981,7 +32981,7 @@
         </is>
       </c>
       <c r="I449" t="n">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="J449" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         </is>
       </c>
       <c r="I463" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         </is>
       </c>
       <c r="I491" t="n">
-        <v>1941</v>
+        <v>1947</v>
       </c>
       <c r="J491" t="inlineStr">
         <is>
@@ -36155,7 +36155,7 @@
         </is>
       </c>
       <c r="I492" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J492" t="inlineStr">
         <is>
@@ -36440,7 +36440,7 @@
         </is>
       </c>
       <c r="I496" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J496" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -37387,7 +37387,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K509" t="inlineStr">
@@ -37458,7 +37458,7 @@
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K510" t="inlineStr">
@@ -37533,7 +37533,7 @@
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K511" t="inlineStr">
@@ -37608,7 +37608,7 @@
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -37687,7 +37687,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -37762,7 +37762,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37841,7 +37841,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -37908,7 +37908,7 @@
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K516" t="inlineStr">
@@ -37983,7 +37983,7 @@
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K517" t="inlineStr">
@@ -38054,7 +38054,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K518" t="inlineStr">
@@ -38125,7 +38125,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -38205,7 +38205,7 @@
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K520" t="inlineStr">
@@ -38276,7 +38276,7 @@
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K521" t="inlineStr">
